--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Adam15-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Adam15-Itga5.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>39.288329</v>
+        <v>23.699655</v>
       </c>
       <c r="H2">
-        <v>117.864987</v>
+        <v>71.09896499999999</v>
       </c>
       <c r="I2">
-        <v>0.632237668435316</v>
+        <v>0.4841969272415696</v>
       </c>
       <c r="J2">
-        <v>0.632237668435316</v>
+        <v>0.4841969272415697</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>28.72417333333333</v>
+        <v>10.34761366666667</v>
       </c>
       <c r="N2">
-        <v>86.17251999999999</v>
+        <v>31.042841</v>
       </c>
       <c r="O2">
-        <v>0.4233259107972328</v>
+        <v>0.2299953477621856</v>
       </c>
       <c r="P2">
-        <v>0.4233259107972328</v>
+        <v>0.2299953477621856</v>
       </c>
       <c r="Q2">
-        <v>1128.524772173026</v>
+        <v>245.2348739732849</v>
       </c>
       <c r="R2">
-        <v>10156.72294955724</v>
+        <v>2207.113865759565</v>
       </c>
       <c r="S2">
-        <v>0.267642586830699</v>
+        <v>0.1113630406663065</v>
       </c>
       <c r="T2">
-        <v>0.267642586830699</v>
+        <v>0.1113630406663065</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>39.288329</v>
+        <v>23.699655</v>
       </c>
       <c r="H3">
-        <v>117.864987</v>
+        <v>71.09896499999999</v>
       </c>
       <c r="I3">
-        <v>0.632237668435316</v>
+        <v>0.4841969272415696</v>
       </c>
       <c r="J3">
-        <v>0.632237668435316</v>
+        <v>0.4841969272415697</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>91.709587</v>
       </c>
       <c r="O3">
-        <v>0.4505269713084062</v>
+        <v>0.6794731949692173</v>
       </c>
       <c r="P3">
-        <v>0.4505269713084062</v>
+        <v>0.6794731949692174</v>
       </c>
       <c r="Q3">
-        <v>1201.038808836708</v>
+        <v>724.4951906974949</v>
       </c>
       <c r="R3">
-        <v>10809.34927953037</v>
+        <v>6520.456716277455</v>
       </c>
       <c r="S3">
-        <v>0.2848401219072513</v>
+        <v>0.3289988331471069</v>
       </c>
       <c r="T3">
-        <v>0.2848401219072513</v>
+        <v>0.328998833147107</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>39.288329</v>
+        <v>23.699655</v>
       </c>
       <c r="H4">
-        <v>117.864987</v>
+        <v>71.09896499999999</v>
       </c>
       <c r="I4">
-        <v>0.632237668435316</v>
+        <v>0.4841969272415696</v>
       </c>
       <c r="J4">
-        <v>0.632237668435316</v>
+        <v>0.4841969272415697</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.559531999999999</v>
+        <v>4.073058666666666</v>
       </c>
       <c r="N4">
-        <v>25.678596</v>
+        <v>12.219176</v>
       </c>
       <c r="O4">
-        <v>0.126147117894361</v>
+        <v>0.09053145726859702</v>
       </c>
       <c r="P4">
-        <v>0.126147117894361</v>
+        <v>0.09053145726859703</v>
       </c>
       <c r="Q4">
-        <v>336.2897093020279</v>
+        <v>96.53008519475998</v>
       </c>
       <c r="R4">
-        <v>3026.607383718252</v>
+        <v>868.7707667528399</v>
       </c>
       <c r="S4">
-        <v>0.07975495969736572</v>
+        <v>0.04383505342815613</v>
       </c>
       <c r="T4">
-        <v>0.07975495969736572</v>
+        <v>0.04383505342815615</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,13 +723,13 @@
         <v>19.344283</v>
       </c>
       <c r="H5">
-        <v>58.03284899999999</v>
+        <v>58.032849</v>
       </c>
       <c r="I5">
-        <v>0.3112930657211947</v>
+        <v>0.3952142927098025</v>
       </c>
       <c r="J5">
-        <v>0.3112930657211947</v>
+        <v>0.3952142927098025</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>28.72417333333333</v>
+        <v>10.34761366666667</v>
       </c>
       <c r="N5">
-        <v>86.17251999999999</v>
+        <v>31.042841</v>
       </c>
       <c r="O5">
-        <v>0.4233259107972328</v>
+        <v>0.2299953477621856</v>
       </c>
       <c r="P5">
-        <v>0.4233259107972328</v>
+        <v>0.2299953477621856</v>
       </c>
       <c r="Q5">
-        <v>555.6485379010531</v>
+        <v>200.1671671426677</v>
       </c>
       <c r="R5">
-        <v>5000.836841109479</v>
+        <v>1801.504504284009</v>
       </c>
       <c r="S5">
-        <v>0.1317784205712876</v>
+        <v>0.09089744869237722</v>
       </c>
       <c r="T5">
-        <v>0.1317784205712876</v>
+        <v>0.09089744869237723</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,13 +785,13 @@
         <v>19.344283</v>
       </c>
       <c r="H6">
-        <v>58.03284899999999</v>
+        <v>58.032849</v>
       </c>
       <c r="I6">
-        <v>0.3112930657211947</v>
+        <v>0.3952142927098025</v>
       </c>
       <c r="J6">
-        <v>0.3112930657211947</v>
+        <v>0.3952142927098025</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>91.709587</v>
       </c>
       <c r="O6">
-        <v>0.4505269713084062</v>
+        <v>0.6794731949692173</v>
       </c>
       <c r="P6">
-        <v>0.4505269713084062</v>
+        <v>0.6794731949692174</v>
       </c>
       <c r="Q6">
-        <v>591.3520682470403</v>
+        <v>591.3520682470404</v>
       </c>
       <c r="R6">
-        <v>5322.168614223362</v>
+        <v>5322.168614223363</v>
       </c>
       <c r="S6">
-        <v>0.1402459220886785</v>
+        <v>0.2685375181650289</v>
       </c>
       <c r="T6">
-        <v>0.1402459220886785</v>
+        <v>0.268537518165029</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,13 +847,13 @@
         <v>19.344283</v>
       </c>
       <c r="H7">
-        <v>58.03284899999999</v>
+        <v>58.032849</v>
       </c>
       <c r="I7">
-        <v>0.3112930657211947</v>
+        <v>0.3952142927098025</v>
       </c>
       <c r="J7">
-        <v>0.3112930657211947</v>
+        <v>0.3952142927098025</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.559531999999999</v>
+        <v>4.073058666666666</v>
       </c>
       <c r="N7">
-        <v>25.678596</v>
+        <v>12.219176</v>
       </c>
       <c r="O7">
-        <v>0.126147117894361</v>
+        <v>0.09053145726859702</v>
       </c>
       <c r="P7">
-        <v>0.126147117894361</v>
+        <v>0.09053145726859703</v>
       </c>
       <c r="Q7">
-        <v>165.578009355556</v>
+        <v>78.79039952360266</v>
       </c>
       <c r="R7">
-        <v>1490.202084200004</v>
+        <v>709.1135957124239</v>
       </c>
       <c r="S7">
-        <v>0.0392687230612286</v>
+        <v>0.03577932585239627</v>
       </c>
       <c r="T7">
-        <v>0.0392687230612286</v>
+        <v>0.03577932585239628</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.509096666666667</v>
+        <v>5.902376333333333</v>
       </c>
       <c r="H8">
-        <v>10.52729</v>
+        <v>17.707129</v>
       </c>
       <c r="I8">
-        <v>0.05646926584348937</v>
+        <v>0.1205887800486278</v>
       </c>
       <c r="J8">
-        <v>0.05646926584348937</v>
+        <v>0.1205887800486278</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>28.72417333333333</v>
+        <v>10.34761366666667</v>
       </c>
       <c r="N8">
-        <v>86.17251999999999</v>
+        <v>31.042841</v>
       </c>
       <c r="O8">
-        <v>0.4233259107972328</v>
+        <v>0.2299953477621856</v>
       </c>
       <c r="P8">
-        <v>0.4233259107972328</v>
+        <v>0.2299953477621856</v>
       </c>
       <c r="Q8">
-        <v>100.7959008967555</v>
+        <v>61.07551001260988</v>
       </c>
       <c r="R8">
-        <v>907.1631080707999</v>
+        <v>549.679590113489</v>
       </c>
       <c r="S8">
-        <v>0.0239049033952462</v>
+        <v>0.02773485840350186</v>
       </c>
       <c r="T8">
-        <v>0.02390490339524621</v>
+        <v>0.02773485840350187</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.509096666666667</v>
+        <v>5.902376333333333</v>
       </c>
       <c r="H9">
-        <v>10.52729</v>
+        <v>17.707129</v>
       </c>
       <c r="I9">
-        <v>0.05646926584348937</v>
+        <v>0.1205887800486278</v>
       </c>
       <c r="J9">
-        <v>0.05646926584348937</v>
+        <v>0.1205887800486278</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>91.709587</v>
       </c>
       <c r="O9">
-        <v>0.4505269713084062</v>
+        <v>0.6794731949692173</v>
       </c>
       <c r="P9">
-        <v>0.4505269713084062</v>
+        <v>0.6794731949692174</v>
       </c>
       <c r="Q9">
-        <v>107.2726020143589</v>
+        <v>180.4348319495247</v>
       </c>
       <c r="R9">
-        <v>965.45341812923</v>
+        <v>1623.913487545723</v>
       </c>
       <c r="S9">
-        <v>0.0254409273124765</v>
+        <v>0.08193684365708136</v>
       </c>
       <c r="T9">
-        <v>0.0254409273124765</v>
+        <v>0.08193684365708137</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.509096666666667</v>
+        <v>5.902376333333333</v>
       </c>
       <c r="H10">
-        <v>10.52729</v>
+        <v>17.707129</v>
       </c>
       <c r="I10">
-        <v>0.05646926584348937</v>
+        <v>0.1205887800486278</v>
       </c>
       <c r="J10">
-        <v>0.05646926584348937</v>
+        <v>0.1205887800486278</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.559531999999999</v>
+        <v>4.073058666666666</v>
       </c>
       <c r="N10">
-        <v>25.678596</v>
+        <v>12.219176</v>
       </c>
       <c r="O10">
-        <v>0.126147117894361</v>
+        <v>0.09053145726859702</v>
       </c>
       <c r="P10">
-        <v>0.126147117894361</v>
+        <v>0.09053145726859703</v>
       </c>
       <c r="Q10">
-        <v>30.03622520942666</v>
+        <v>24.04072507841155</v>
       </c>
       <c r="R10">
-        <v>270.32602688484</v>
+        <v>216.366525705704</v>
       </c>
       <c r="S10">
-        <v>0.007123435135766664</v>
+        <v>0.01091707798804459</v>
       </c>
       <c r="T10">
-        <v>0.007123435135766664</v>
+        <v>0.0109170779880446</v>
       </c>
     </row>
   </sheetData>
